--- a/database/Mahjong_Table_List_230116.xlsx
+++ b/database/Mahjong_Table_List_230116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzzzin/WorkSpace/mahjongScore/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23BAA4E-3530-2743-94E7-482301910900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC447B-8C8B-6343-B976-FDD739D399F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76800" yWindow="23780" windowWidth="28800" windowHeight="17500" xr2:uid="{F40D9CAE-C989-7A43-9DC9-68E45FEDD6A7}"/>
+    <workbookView xWindow="76800" yWindow="23280" windowWidth="28800" windowHeight="18000" xr2:uid="{F40D9CAE-C989-7A43-9DC9-68E45FEDD6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Mahjong_Score" sheetId="1" r:id="rId1"/>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F81CE-CC72-FE44-AF16-180D822CCB8D}">
   <dimension ref="B1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
